--- a/data/hotels_by_city/Denver/Denver_shard_203.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_203.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33668-d119934-Reviews-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-Thornton.h1029934.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,621 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r545547890-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>119934</t>
+  </si>
+  <si>
+    <t>545547890</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Clean room, noisy location.</t>
+  </si>
+  <si>
+    <t>Room was nice and clean.  A bit noisy since it's so close to the interstate. Paid for internet, which I had to ask for after check in as it wasn't mentioned at check in. Glad to find a clean hotel!  Front desk staff friendly.  It was very cold and rainy when I stayed there, and the room heated up very quickly.  Much appreicated!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r538932456-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>538932456</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>was a long day and,</t>
+  </si>
+  <si>
+    <t>the professional front desk clerks, went above and beyond my expectations. Had a couple requests and they where very accommodating. Great costumer service. Rooms, basic and clean, just what i expected. Id stay again. Thank you.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r535571180-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>535571180</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Try another motel</t>
+  </si>
+  <si>
+    <t>This location has a 24 hour cancellation policy.  If you don't check-in on the day you reserved, the office will put you on a "black list" and ban you from staying there in the future.I had previously stayed there in the past for a total of about 30-40 nights over a year period.Try the ones on Federal or Peoria, they actually treat you like a valued customer.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r484656441-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>484656441</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>My daughter booked this online as part of a package deal. We arrived about 11:30 pm and were so tired we could have slept most anywhere...Where do I begin?  -We were overcharged for the room. -Room was outdated. I'm talking slum lord outdated. -The room was dirty. Really dirty. -Gaps between wall and ceiling. -Base boards coming apart from the wall. -No toiletries. -Charged extra for internet. -Loud music and yelling coming from room next door. -Shady characters hanging around outside. So much so we were uncomfortable going outside, afraid our car would be broken into, and with the room's beat up wooden door we seriously questioned our safety inside the room. It reminded us more of a crack house than a motel. The one positive was that the desk clerk did not hesitate on refunding our money.  At 12:30 am we were sitting in a restaurant parking lot, in a strange city, with nowhere to stay. Honestly, I preferred to sleep in our car over the hotel room. Luckily we found a room in a Supper 8 (for the SAME price. Clean, safe, pool, breakfast, toiletries, and friendly staff. We booked three nights and couldn't have been happier.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My daughter booked this online as part of a package deal. We arrived about 11:30 pm and were so tired we could have slept most anywhere...Where do I begin?  -We were overcharged for the room. -Room was outdated. I'm talking slum lord outdated. -The room was dirty. Really dirty. -Gaps between wall and ceiling. -Base boards coming apart from the wall. -No toiletries. -Charged extra for internet. -Loud music and yelling coming from room next door. -Shady characters hanging around outside. So much so we were uncomfortable going outside, afraid our car would be broken into, and with the room's beat up wooden door we seriously questioned our safety inside the room. It reminded us more of a crack house than a motel. The one positive was that the desk clerk did not hesitate on refunding our money.  At 12:30 am we were sitting in a restaurant parking lot, in a strange city, with nowhere to stay. Honestly, I preferred to sleep in our car over the hotel room. Luckily we found a room in a Supper 8 (for the SAME price. Clean, safe, pool, breakfast, toiletries, and friendly staff. We booked three nights and couldn't have been happier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r470972588-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>470972588</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhospitable hospitality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff take a tone with you and are curt when they do finally deign to answer the phone at the front desk. The sink has no cold water, only hot. There is a nice corner hutch, but the seat is broken. And wifi IS available, but the so-called high speed is turtle slow, with poor signal. It is the kind of motel that people who want to rent by the hour would go to. Summary: a one star rating is overly generous in my review, but I can't give only a fraction of one star. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r468703038-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>468703038</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Worse hotel we have ever experienced</t>
+  </si>
+  <si>
+    <t>By far worse experience we have ever had.  The customer service rep Cynthia was absolutely atrocious.  Eye rolling, snotty and rude even on the phone she had an attitude problem.  We had so many issues with her behavior we ended up canceling our reservation on the spot coming in late night after a 20 hour drive will never go to a motel 6 again because of this womanMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Denver Thornton, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>By far worse experience we have ever had.  The customer service rep Cynthia was absolutely atrocious.  Eye rolling, snotty and rude even on the phone she had an attitude problem.  We had so many issues with her behavior we ended up canceling our reservation on the spot coming in late night after a 20 hour drive will never go to a motel 6 again because of this womanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r398022962-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>398022962</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!!!</t>
+  </si>
+  <si>
+    <t>Since the last time I stayed here,  this place has really gone downhill.The air conditioning did not work so we had to open the window all night. We were kept awake by some rather unsavory characters wandering around through the parking lot all night and some guys shooting up on the stairs by our room.As well some family let their kids run around screaming and yelling very late in the night.I will NEVER stay here again!!!!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r387445303-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>387445303</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Stale Smoke Stench/Check in by 6pm</t>
+  </si>
+  <si>
+    <t>Check in or call if you will be late BY 6:00 PM AT THE LATEST or you will lose your second night and maybe first night reservation!
+We needed a ground floor room. It smelled of stale smoke as soon as we entered.  
+They were sold out so no option on moving.  After leaving the room for an entire day - the dogs had to be left so we said no housekeeping, the smell when we reentered was beyond overwhelming.  It was enough to make you want to gag and I had trouble getting to sleep.  This was supposed to be a non-smoking room.  
+If you can avoid this place, please do!  It is in a bad section of town and its clientele reflect that.
+$80 was our nightly budget or we would've moved elsewhere.  No hairdryer, no iron, no tissues, no refrigerator, no microwave.  If you want internet you have two price options.
+The bathroom was clean and the towels and sheets were clean.  The bed is firm but not hard and does not sag.  There is no carpet so dirt and pet dander are not a concern.  Shower head swivels nicely.  The air conditioning is not noisy but doesn't seem to blow as cool at night since we woke up to a much warmer room than when we went to bed.
+As a side note, I have stayed in a Motel 6 on other occasions in other areas....Check in or call if you will be late BY 6:00 PM AT THE LATEST or you will lose your second night and maybe first night reservation!We needed a ground floor room. It smelled of stale smoke as soon as we entered.  They were sold out so no option on moving.  After leaving the room for an entire day - the dogs had to be left so we said no housekeeping, the smell when we reentered was beyond overwhelming.  It was enough to make you want to gag and I had trouble getting to sleep.  This was supposed to be a non-smoking room.  If you can avoid this place, please do!  It is in a bad section of town and its clientele reflect that.$80 was our nightly budget or we would've moved elsewhere.  No hairdryer, no iron, no tissues, no refrigerator, no microwave.  If you want internet you have two price options.The bathroom was clean and the towels and sheets were clean.  The bed is firm but not hard and does not sag.  There is no carpet so dirt and pet dander are not a concern.  Shower head swivels nicely.  The air conditioning is not noisy but doesn't seem to blow as cool at night since we woke up to a much warmer room than when we went to bed.As a side note, I have stayed in a Motel 6 on other occasions in other areas.  I was pleased enough with those.  The remodeling is very Euro and I loved it but this one . . . . .   This one was a great disappointment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Check in or call if you will be late BY 6:00 PM AT THE LATEST or you will lose your second night and maybe first night reservation!
+We needed a ground floor room. It smelled of stale smoke as soon as we entered.  
+They were sold out so no option on moving.  After leaving the room for an entire day - the dogs had to be left so we said no housekeeping, the smell when we reentered was beyond overwhelming.  It was enough to make you want to gag and I had trouble getting to sleep.  This was supposed to be a non-smoking room.  
+If you can avoid this place, please do!  It is in a bad section of town and its clientele reflect that.
+$80 was our nightly budget or we would've moved elsewhere.  No hairdryer, no iron, no tissues, no refrigerator, no microwave.  If you want internet you have two price options.
+The bathroom was clean and the towels and sheets were clean.  The bed is firm but not hard and does not sag.  There is no carpet so dirt and pet dander are not a concern.  Shower head swivels nicely.  The air conditioning is not noisy but doesn't seem to blow as cool at night since we woke up to a much warmer room than when we went to bed.
+As a side note, I have stayed in a Motel 6 on other occasions in other areas....Check in or call if you will be late BY 6:00 PM AT THE LATEST or you will lose your second night and maybe first night reservation!We needed a ground floor room. It smelled of stale smoke as soon as we entered.  They were sold out so no option on moving.  After leaving the room for an entire day - the dogs had to be left so we said no housekeeping, the smell when we reentered was beyond overwhelming.  It was enough to make you want to gag and I had trouble getting to sleep.  This was supposed to be a non-smoking room.  If you can avoid this place, please do!  It is in a bad section of town and its clientele reflect that.$80 was our nightly budget or we would've moved elsewhere.  No hairdryer, no iron, no tissues, no refrigerator, no microwave.  If you want internet you have two price options.The bathroom was clean and the towels and sheets were clean.  The bed is firm but not hard and does not sag.  There is no carpet so dirt and pet dander are not a concern.  Shower head swivels nicely.  The air conditioning is not noisy but doesn't seem to blow as cool at night since we woke up to a much warmer room than when we went to bed.As a side note, I have stayed in a Motel 6 on other occasions in other areas.  I was pleased enough with those.  The remodeling is very Euro and I loved it but this one . . . . .   This one was a great disappointment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r336413326-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>336413326</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>No frills overnight stay</t>
+  </si>
+  <si>
+    <t>It needed some maintenance - TV didn't work, sink stopper stuck in closed position, but otherwise clean and okay for a night's stay at a budget rate.  They gave me another room, and that TV had static.  No frills - have to pay for wifi, only free coffee at a certain time.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r296763277-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>296763277</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 Thorton, Co</t>
+  </si>
+  <si>
+    <t>Terrible! Walk into non-smoking room, smells like smoke and litter boxes. Uncomfortable entire stay. Ghetto type feeling. Blankets had cigarette burn holes, stains on walls and chairs. Would NOT recommend, price WAY too high for what you get...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver Thornton, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Terrible! Walk into non-smoking room, smells like smoke and litter boxes. Uncomfortable entire stay. Ghetto type feeling. Blankets had cigarette burn holes, stains on walls and chairs. Would NOT recommend, price WAY too high for what you get...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r296107341-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>296107341</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>OK!!</t>
+  </si>
+  <si>
+    <t>Non smoking room smells like smoke!! Nasty !! Outside not clean .. A lot of noise!! Pool very dirty!! Late at night no one at front desk to help me!! Rooms are clean and very modern ..restrooms are really nice!! Overall an ok experience .. Good for the price!!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver Thornton, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Non smoking room smells like smoke!! Nasty !! Outside not clean .. A lot of noise!! Pool very dirty!! Late at night no one at front desk to help me!! Rooms are clean and very modern ..restrooms are really nice!! Overall an ok experience .. Good for the price!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r295985931-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>295985931</t>
+  </si>
+  <si>
+    <t>Room 113, handicap noisy! The worst Motel 6 ever!</t>
+  </si>
+  <si>
+    <t>Checked into motel, looking forward to some time in the pool! Pool was out of order, and had been for sometime according to permanent residence. Was not given a price break or advised on booking or check-in. The area around the handicap room is surrounded by permanent residences with small kids and dogs. The kids were right outside the door till around 9pm screaming, and yelling. Multiple dogs in area barking at all times!MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked into motel, looking forward to some time in the pool! Pool was out of order, and had been for sometime according to permanent residence. Was not given a price break or advised on booking or check-in. The area around the handicap room is surrounded by permanent residences with small kids and dogs. The kids were right outside the door till around 9pm screaming, and yelling. Multiple dogs in area barking at all times!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r289029585-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>289029585</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Non smoking????? Seriously??????????</t>
+  </si>
+  <si>
+    <t>I'm sitting in the motel 6 room right now as I write this. The perfumed scent they used to cover up the smoke in this supposedly non-smoking room is hideous! We're almost choking it's so strong. But we had a cancelled plane flight, it's late, there are no other hotels/motels with vacancies nearby, and it was recommended to my daughter by a flight attendant. Next time I choose the hotel!! For goodness sakes, 1) do not stay here 2) don't believe any positive reviews - they have to be planted and 3) do not stay here. The last bears repeating. Who knows - I may end up sleeping in the car tonight if I can't get used to the heavily perfumed air!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Thornton, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>I'm sitting in the motel 6 room right now as I write this. The perfumed scent they used to cover up the smoke in this supposedly non-smoking room is hideous! We're almost choking it's so strong. But we had a cancelled plane flight, it's late, there are no other hotels/motels with vacancies nearby, and it was recommended to my daughter by a flight attendant. Next time I choose the hotel!! For goodness sakes, 1) do not stay here 2) don't believe any positive reviews - they have to be planted and 3) do not stay here. The last bears repeating. Who knows - I may end up sleeping in the car tonight if I can't get used to the heavily perfumed air!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r275183490-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>275183490</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>this should be your last choice</t>
+  </si>
+  <si>
+    <t>while in Denver we neglected to make reservations ahead of time and found ourselves running out of options when attempting to find a room for the night. The first thing that shocked me was the price of the room. Almost $95.00 for a Motel 6 room. But I guess that's Denver. When we entered our room the heat was on and the temp must have been about 85 degrees. Ok, it had been raining that day and the maid must have left it on. When I tried to turn on the AC to cool off the room to my surprise I found it didn't work. Ok, let's open the window. Here comes the noise. I-25 traffic, parking lot traffic and other guest noise. Next came the bed. Queen sized and felt like we laying on a board. The blanket had a bit of a funky smell as well. Very suprising for  Motel 6.PS-when I tried to sign onto Wi-Fi with my tablet, I was informed that $3.00 charge would be added to my bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>while in Denver we neglected to make reservations ahead of time and found ourselves running out of options when attempting to find a room for the night. The first thing that shocked me was the price of the room. Almost $95.00 for a Motel 6 room. But I guess that's Denver. When we entered our room the heat was on and the temp must have been about 85 degrees. Ok, it had been raining that day and the maid must have left it on. When I tried to turn on the AC to cool off the room to my surprise I found it didn't work. Ok, let's open the window. Here comes the noise. I-25 traffic, parking lot traffic and other guest noise. Next came the bed. Queen sized and felt like we laying on a board. The blanket had a bit of a funky smell as well. Very suprising for  Motel 6.PS-when I tried to sign onto Wi-Fi with my tablet, I was informed that $3.00 charge would be added to my bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r274504193-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>274504193</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Everyday, a new issue</t>
+  </si>
+  <si>
+    <t>Hair, pet and human, all over "clean" bath towels. Floors not swept or clean. Dog hair in my ice bucket and I don't have a dog and never used the ice bucket. Constant barking dogs day and night. First morning I woke up to find cops with guns drawn outside next door to my room. Second day, another incident at this motel requiring police. The hot water doesn't last and it goes from warm to ice cold after about 10 minutes. Heat in my room doesn't work. They said nothing is wrong with it when I complained. No mini fridge in room. Maid service sucks. The maid came in took all my towels and opened my curtain thats it. Didn't empty trash, didn't replace the towels, make the bed, sweep the floor.....nothing. I came home from work to find my room like this and the front office didn't have anything but hand towels to give me. Its better than being homeless I guess.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Thornton, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Hair, pet and human, all over "clean" bath towels. Floors not swept or clean. Dog hair in my ice bucket and I don't have a dog and never used the ice bucket. Constant barking dogs day and night. First morning I woke up to find cops with guns drawn outside next door to my room. Second day, another incident at this motel requiring police. The hot water doesn't last and it goes from warm to ice cold after about 10 minutes. Heat in my room doesn't work. They said nothing is wrong with it when I complained. No mini fridge in room. Maid service sucks. The maid came in took all my towels and opened my curtain thats it. Didn't empty trash, didn't replace the towels, make the bed, sweep the floor.....nothing. I came home from work to find my room like this and the front office didn't have anything but hand towels to give me. Its better than being homeless I guess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r246911725-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>246911725</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>That 70s show</t>
+  </si>
+  <si>
+    <t>Its an older two story right off the highway. It has been updated recently as the pictures show in colors popular in the 70s. It's clean enough. It is a motel 6 so I would never give more then 3 stars. You don't stay here for the amenities, you stay here because it's inexpensive. The key here is get a room in the back upstairs and away from the stairs and noise will not be an issue.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r243101245-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>243101245</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated and cheap </t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for one night during our road trip in Colorado, and were pleasantly surprised by how nice our room was. It was updated, had a nice mounted flat screen, and definitely not what I was expecting when I paid 60 bucks to spend the night. I am not from the area, but the surrounding neighborhood seemed a bit sketchy, as were the other guests staying there. There are signs posted around the parking lot urging guests to lock their cars and stating that the hotel is not responsible for damages or stolen items. Other than that, the room is pretty basic, no fridge, microwave, and a daily $3 fee for wifi. The shower was tiny, only big enough for one person, and the heat was cranked up way too high, but those are my only complaints. The staff at the front desk were very friendly and helped point me in the right direction for groceries, which were just up the street. For the price, I feel I got my moneys worth, and I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for one night during our road trip in Colorado, and were pleasantly surprised by how nice our room was. It was updated, had a nice mounted flat screen, and definitely not what I was expecting when I paid 60 bucks to spend the night. I am not from the area, but the surrounding neighborhood seemed a bit sketchy, as were the other guests staying there. There are signs posted around the parking lot urging guests to lock their cars and stating that the hotel is not responsible for damages or stolen items. Other than that, the room is pretty basic, no fridge, microwave, and a daily $3 fee for wifi. The shower was tiny, only big enough for one person, and the heat was cranked up way too high, but those are my only complaints. The staff at the front desk were very friendly and helped point me in the right direction for groceries, which were just up the street. For the price, I feel I got my moneys worth, and I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r231592465-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>231592465</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>lock your doors</t>
+  </si>
+  <si>
+    <t>This hotel is great if you like to party all night  with shady people. Not so good for sleeping .my wife seen a guy checking our car out in lot seeing if doors were locked.loud people evey night even louder Friday and Saturday .If you stay here you would probably feel better if you were armed in your room but that don't stop the people messing with your car while you sleep.do your self a favor and spend the 15-20$ more a night and sleep better at night probably cheaper in the long run if someone Was to steal stuff out your car it would cost you more then the 15-20$.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>This hotel is great if you like to party all night  with shady people. Not so good for sleeping .my wife seen a guy checking our car out in lot seeing if doors were locked.loud people evey night even louder Friday and Saturday .If you stay here you would probably feel better if you were armed in your room but that don't stop the people messing with your car while you sleep.do your self a favor and spend the 15-20$ more a night and sleep better at night probably cheaper in the long run if someone Was to steal stuff out your car it would cost you more then the 15-20$.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r226702543-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>226702543</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms</t>
+  </si>
+  <si>
+    <t>No mini-fridges, microwaves, or coffee makers in the room, but the accommodations were cheap, clean, and adequate. Staff was very friendly and directed me to local shopping. I arrived before check in, so I had to wait for a room, but the staff let me check in to the first available room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r223965740-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>223965740</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Very good!</t>
+  </si>
+  <si>
+    <t>I really liked it there: friendly check-in staff, room spotless clean, new interior that is easy to clean. Other reviewers said the area and the parking would look shabby. That is something that I absolutely cannot confirm. Of course, this simply isn't the most expensive area of town, but certainly I felt safe there. I also don't own a pet and therefore i cannot review whether the pet area is acceptable for pet owners.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r214011253-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>214011253</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Ok I Guess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok the price wasn't not to bad but the beds were extremely hard and my family and I got a room close to stairs and the noise was ridiculous all night and I do not recommend walking to the restaurant at night it just doesn't seem safe. But I guess if you won't stay there long it will be a good place to stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r160175263-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>160175263</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>NOT PET FRIENDLY</t>
+  </si>
+  <si>
+    <t>First of all, if you have any plans on leaving your dog in your room while you go do ANYTHING else (even if you leave your dog in a kennel), don't stay here.  Management will threaten to not let you stay there the next day if you do (and keep your money), and claim that you left your dogs all day (3 hours is not ALL DAY).  They will also say your dogs were barking all day even if you have had no problems with this before in a hotel and the only reason your dogs are barking is that other dogs in the hotel as well as other guests are being noisy and the dogs are defending their space.  Then, when another guest threatens you with bodily harm because your dogs bark for 30 seconds, they claim that their guests' behavior is not their responsibility.  I ended up with a migraine because of a threat of this sort and the management made excuses for the bully instead of showing any concern for me.  Finally, they will pick out specific people to harass about their dogs.  We heard plenty of other dogs barking in other rooms and the management didn't say ANYTHING to those dog owners.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>First of all, if you have any plans on leaving your dog in your room while you go do ANYTHING else (even if you leave your dog in a kennel), don't stay here.  Management will threaten to not let you stay there the next day if you do (and keep your money), and claim that you left your dogs all day (3 hours is not ALL DAY).  They will also say your dogs were barking all day even if you have had no problems with this before in a hotel and the only reason your dogs are barking is that other dogs in the hotel as well as other guests are being noisy and the dogs are defending their space.  Then, when another guest threatens you with bodily harm because your dogs bark for 30 seconds, they claim that their guests' behavior is not their responsibility.  I ended up with a migraine because of a threat of this sort and the management made excuses for the bully instead of showing any concern for me.  Finally, they will pick out specific people to harass about their dogs.  We heard plenty of other dogs barking in other rooms and the management didn't say ANYTHING to those dog owners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r159846994-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>159846994</t>
+  </si>
+  <si>
+    <t>05/06/2013</t>
+  </si>
+  <si>
+    <t>Good price, but loud and kinda hard to find.</t>
+  </si>
+  <si>
+    <t>So, they've redone the rooms, and they look really nice!  Cool new flat screens, new bathrooms, very modern furnishing, it was all really nice looking.  Just wish they would have added insulation to the walls.  I was up half the night listening to the neighbors have their way with each other. With many moans, groans, and wall banging.  I'm just glad my sons were asleep when we arrived or I'd have to explain things I really don't want to for a couple of years!  I could also hear the traffic all night.  Also, the room STUNK of smoke!  The room was a nonsmoking room too.  I guess you get what you pay for.  At $60 a night it's hard to beat, and the staff was extremely helpful and pleasant to deal with.  Just remember that just because you can see it from I-25 doesn't mean it's easy to find.  It's tucked back  off the main road.MoreShow less</t>
+  </si>
+  <si>
+    <t>So, they've redone the rooms, and they look really nice!  Cool new flat screens, new bathrooms, very modern furnishing, it was all really nice looking.  Just wish they would have added insulation to the walls.  I was up half the night listening to the neighbors have their way with each other. With many moans, groans, and wall banging.  I'm just glad my sons were asleep when we arrived or I'd have to explain things I really don't want to for a couple of years!  I could also hear the traffic all night.  Also, the room STUNK of smoke!  The room was a nonsmoking room too.  I guess you get what you pay for.  At $60 a night it's hard to beat, and the staff was extremely helpful and pleasant to deal with.  Just remember that just because you can see it from I-25 doesn't mean it's easy to find.  It's tucked back  off the main road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r148285296-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>148285296</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Im done with motel 6</t>
+  </si>
+  <si>
+    <t>Hey, I've been comped rooms, I've stayed at several locations and although the asthetics were up to par, the linens still are filthy and this trip we got to the bottom of the problem, the head house keeper informed me that the linens on the bed were clean that the business needs to purchase new laundry machines for all the motel 6's in the world because it is clean, but the hairs stay in the towel. so if you don't mind pubic hair in your bed and on your washcloths, then Motel 6 is for you!Stay at a New Victorian Inn if there is one close to you! Happy Holidays!PatMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Hey, I've been comped rooms, I've stayed at several locations and although the asthetics were up to par, the linens still are filthy and this trip we got to the bottom of the problem, the head house keeper informed me that the linens on the bed were clean that the business needs to purchase new laundry machines for all the motel 6's in the world because it is clean, but the hairs stay in the towel. so if you don't mind pubic hair in your bed and on your washcloths, then Motel 6 is for you!Stay at a New Victorian Inn if there is one close to you! Happy Holidays!PatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r130880313-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>130880313</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Higher holiday rate, but still worth it</t>
+  </si>
+  <si>
+    <t>This Sunday of Memorial Day weekend, I left a 'fancy' Comfort Suites motel where I felt I was really getting ripped off, and got a room at this Motel 6 just off I-25 in Thornton (at 84th Avenue) for the last day of my trip.  I'd decided to go there after reading the recommendations (and I agree that it was a very clean room) of those on TripAdvisor as well as the motel6.com website showing it was a motel with 'all new rooms'.  Those 'all new rooms' made me think of  'The Jetsons' when I first saw them in Jackson Hole, WY several years ago.  You can see pictures on the mote6.com website.
+They'd raised the rates to $49.99 for the holiday Sunday, and when I checked out Monday morning I saw the rate on the sign went down to $45.99 which seems to be their regular rate, The motel6.com website shows there is a 'changed rooms' Motel 6 on Iliff in Aurora, that still seems to be charging $39.99... and I guess I do wonder about the difference (as I've been at that one several years ago and it was fine).  Guess someone has to pay for the change in different locations but not all.  It is after all the motel chain that keeps advertising rooms for $39.99...   Oh well... anyway, don't forget 10% discount for seniors; and I think there's 10% off internet rate on their website, and...This Sunday of Memorial Day weekend, I left a 'fancy' Comfort Suites motel where I felt I was really getting ripped off, and got a room at this Motel 6 just off I-25 in Thornton (at 84th Avenue) for the last day of my trip.  I'd decided to go there after reading the recommendations (and I agree that it was a very clean room) of those on TripAdvisor as well as the motel6.com website showing it was a motel with 'all new rooms'.  Those 'all new rooms' made me think of  'The Jetsons' when I first saw them in Jackson Hole, WY several years ago.  You can see pictures on the mote6.com website.They'd raised the rates to $49.99 for the holiday Sunday, and when I checked out Monday morning I saw the rate on the sign went down to $45.99 which seems to be their regular rate, The motel6.com website shows there is a 'changed rooms' Motel 6 on Iliff in Aurora, that still seems to be charging $39.99... and I guess I do wonder about the difference (as I've been at that one several years ago and it was fine).  Guess someone has to pay for the change in different locations but not all.  It is after all the motel chain that keeps advertising rooms for $39.99...   Oh well... anyway, don't forget 10% discount for seniors; and I think there's 10% off internet rate on their website, and maybe others.The dear lady at the front desk was very nice and helpful... and (as it was still before checkout time)  I was happy to wait for a room to vacate and be cleaned on the north side of the complex which faced some trees.   I found the platform bed comfortable and enjoyed the fresh new look of the place.  It was half the size of the small room I had at the 'fancy place', yet I was very comfortable.  The morning coffee, ice machines, laundry, pool and vending machines were typical of the Motel 6 offerings.  The only thing I'd suggest would be to add a (bolted down) microwave in that vending area, which was something I've seen at several other Motel 6's... and was a REAL convenience at those places.Yes, being just across the parking lot from a Village Inn restaurant is really convenient; and a Burger King is a block or two to the west on 84th.  There's a large shopping area off I-25 on 104th Avenue too, besides being close to Denver and the interchanges on I-25, 36, 270 and 70, etc.  I still wish Motel6 would have decided to include a larger shower (like the capsule shaped ones at Sleep Inns) when they 'changed' their rooms... yet the changes are pleasing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This Sunday of Memorial Day weekend, I left a 'fancy' Comfort Suites motel where I felt I was really getting ripped off, and got a room at this Motel 6 just off I-25 in Thornton (at 84th Avenue) for the last day of my trip.  I'd decided to go there after reading the recommendations (and I agree that it was a very clean room) of those on TripAdvisor as well as the motel6.com website showing it was a motel with 'all new rooms'.  Those 'all new rooms' made me think of  'The Jetsons' when I first saw them in Jackson Hole, WY several years ago.  You can see pictures on the mote6.com website.
+They'd raised the rates to $49.99 for the holiday Sunday, and when I checked out Monday morning I saw the rate on the sign went down to $45.99 which seems to be their regular rate, The motel6.com website shows there is a 'changed rooms' Motel 6 on Iliff in Aurora, that still seems to be charging $39.99... and I guess I do wonder about the difference (as I've been at that one several years ago and it was fine).  Guess someone has to pay for the change in different locations but not all.  It is after all the motel chain that keeps advertising rooms for $39.99...   Oh well... anyway, don't forget 10% discount for seniors; and I think there's 10% off internet rate on their website, and...This Sunday of Memorial Day weekend, I left a 'fancy' Comfort Suites motel where I felt I was really getting ripped off, and got a room at this Motel 6 just off I-25 in Thornton (at 84th Avenue) for the last day of my trip.  I'd decided to go there after reading the recommendations (and I agree that it was a very clean room) of those on TripAdvisor as well as the motel6.com website showing it was a motel with 'all new rooms'.  Those 'all new rooms' made me think of  'The Jetsons' when I first saw them in Jackson Hole, WY several years ago.  You can see pictures on the mote6.com website.They'd raised the rates to $49.99 for the holiday Sunday, and when I checked out Monday morning I saw the rate on the sign went down to $45.99 which seems to be their regular rate, The motel6.com website shows there is a 'changed rooms' Motel 6 on Iliff in Aurora, that still seems to be charging $39.99... and I guess I do wonder about the difference (as I've been at that one several years ago and it was fine).  Guess someone has to pay for the change in different locations but not all.  It is after all the motel chain that keeps advertising rooms for $39.99...   Oh well... anyway, don't forget 10% discount for seniors; and I think there's 10% off internet rate on their website, and maybe others.The dear lady at the front desk was very nice and helpful... and (as it was still before checkout time)  I was happy to wait for a room to vacate and be cleaned on the north side of the complex which faced some trees.   I found the platform bed comfortable and enjoyed the fresh new look of the place.  It was half the size of the small room I had at the 'fancy place', yet I was very comfortable.  The morning coffee, ice machines, laundry, pool and vending machines were typical of the Motel 6 offerings.  The only thing I'd suggest would be to add a (bolted down) microwave in that vending area, which was something I've seen at several other Motel 6's... and was a REAL convenience at those places.Yes, being just across the parking lot from a Village Inn restaurant is really convenient; and a Burger King is a block or two to the west on 84th.  There's a large shopping area off I-25 on 104th Avenue too, besides being close to Denver and the interchanges on I-25, 36, 270 and 70, etc.  I still wish Motel6 would have decided to include a larger shower (like the capsule shaped ones at Sleep Inns) when they 'changed' their rooms... yet the changes are pleasing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r120235810-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>120235810</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Motel 6 
+/Thornton</t>
+  </si>
+  <si>
+    <t>This is the first Motel 6 that I have stayed at that was like staying at the Aloft by Starwood or Hotel Indigo by Priority. The rooms or very modern and very comfortable. The location is not that great, but once you get in the room you forget about it.  Definitely, a must see. I would recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r116223321-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116223321</t>
+  </si>
+  <si>
+    <t>08/03/2011</t>
+  </si>
+  <si>
+    <t>More than I expected!</t>
+  </si>
+  <si>
+    <t>We stayed here on our trip to Idaho.  We weren't going to stay long and didn't want to spend a fortune but didn't want a dump either.  We took a chance with the low rate and it turned out great!  The rooms were perfectly clean and beautifully renovated.  The staff was also very friendly and helpful.  They didn't have a breakfast which was okay since it was only $55 stay but the kind staff directed us to close places to eat.  Very pleased and would for sure stay again.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r82788752-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>82788752</t>
+  </si>
+  <si>
+    <t>10/09/2010</t>
+  </si>
+  <si>
+    <t>Above average for the price</t>
+  </si>
+  <si>
+    <t>I stayed at this place for 4 days. I never saw anything described in the previous reviews on google (seriously!). The rooms are basic, but clean. I had no problem with getting anything stolen (left my laptop in the room the whole time). Never saw any problem dog.Staff at counter were friendly and helpful. WIFI works well and is fast. I would recommend this place to anyone who knows what to expect from a $50 a night place. For the price its above average.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r78986576-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>78986576</t>
+  </si>
+  <si>
+    <t>09/10/2010</t>
+  </si>
+  <si>
+    <t>Amazing rooms, right in the center of gangland! :)</t>
+  </si>
+  <si>
+    <t>Ok. I'm not picky about motels. I can't be, because I don't have a ton of cash, and I travel constantly. This Motel 6 is renewed...and I'll be honest, the rooms are AMAZING. So clean, large flatscreen TV, new bedspreads, hardwood floors...really the nicest Motel 6 I've ever been in. I thought I had hit the jackpot when I checked in...I was so pleased! 
+Then the sun went down.
+So, I can handle large parties. Guys hanging off the balconies. Even the large rottweiler who wanders, unleashed, about the property. I'm broke, and I can't be picky. It's annoying, but not necessarily dangerous (if you know where the rottweiler is). However,  please keep the next bit in mind before you stay here.
+After seeing 5 police cars circle through the parking lot from the diner across the road, I asked some guys next door what was going on. I was told, in a very nice way, that I "don't belong here", that this "is no place [I] should be", and I either need " to pack up and leave or lock your door and stay in the room" because 1) I'm in the worst drug area in the city, 2) most of the guests are living here, and 3) I am now in the center of a gang war because x pissed off y, and all hell has broken loose. ("don't worry, ma. We'll watch your room for you".) The...Ok. I'm not picky about motels. I can't be, because I don't have a ton of cash, and I travel constantly. This Motel 6 is renewed...and I'll be honest, the rooms are AMAZING. So clean, large flatscreen TV, new bedspreads, hardwood floors...really the nicest Motel 6 I've ever been in. I thought I had hit the jackpot when I checked in...I was so pleased! Then the sun went down.So, I can handle large parties. Guys hanging off the balconies. Even the large rottweiler who wanders, unleashed, about the property. I'm broke, and I can't be picky. It's annoying, but not necessarily dangerous (if you know where the rottweiler is). However,  please keep the next bit in mind before you stay here.After seeing 5 police cars circle through the parking lot from the diner across the road, I asked some guys next door what was going on. I was told, in a very nice way, that I "don't belong here", that this "is no place [I] should be", and I either need " to pack up and leave or lock your door and stay in the room" because 1) I'm in the worst drug area in the city, 2) most of the guests are living here, and 3) I am now in the center of a gang war because x pissed off y, and all hell has broken loose. ("don't worry, ma. We'll watch your room for you".) The guy then proceeded to walk past my room, pop out the screen on the other room, jimmy the window open, and hop in. I'm from Detroit. I travel a LOT. Not much phases me...and I can usually spot a not-so-good area. And though it's just slightly worn down over here, it by no means looks like a bad place to be. There's a Starbucks down the road, a Borders a mile over, and a church across the street. Not exactly warning signs, there. While barricaded in my room, I looked up the statistics for Denver, and found that I am smack in the center of the Sur-13 gang territory. WHOOO! Value! Cozy rooms! Gangbanging! What more could you want in a vacation? It's like being in a live episode of the First 48!So please. Even if you're fine with a budget hotel, just consider your safety. I was kind of blind to the warning signs until the guy next door told me what was going on (he admitted he's in one of the warring factions, &amp; this is a drug/gang hangout). So...just look elsewhere. Awesome room. Friendly staff. Convenient location, and low price. But be prepared to never leave the room, and to be scared the whole time you're in there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>Ok. I'm not picky about motels. I can't be, because I don't have a ton of cash, and I travel constantly. This Motel 6 is renewed...and I'll be honest, the rooms are AMAZING. So clean, large flatscreen TV, new bedspreads, hardwood floors...really the nicest Motel 6 I've ever been in. I thought I had hit the jackpot when I checked in...I was so pleased! 
+Then the sun went down.
+So, I can handle large parties. Guys hanging off the balconies. Even the large rottweiler who wanders, unleashed, about the property. I'm broke, and I can't be picky. It's annoying, but not necessarily dangerous (if you know where the rottweiler is). However,  please keep the next bit in mind before you stay here.
+After seeing 5 police cars circle through the parking lot from the diner across the road, I asked some guys next door what was going on. I was told, in a very nice way, that I "don't belong here", that this "is no place [I] should be", and I either need " to pack up and leave or lock your door and stay in the room" because 1) I'm in the worst drug area in the city, 2) most of the guests are living here, and 3) I am now in the center of a gang war because x pissed off y, and all hell has broken loose. ("don't worry, ma. We'll watch your room for you".) The...Ok. I'm not picky about motels. I can't be, because I don't have a ton of cash, and I travel constantly. This Motel 6 is renewed...and I'll be honest, the rooms are AMAZING. So clean, large flatscreen TV, new bedspreads, hardwood floors...really the nicest Motel 6 I've ever been in. I thought I had hit the jackpot when I checked in...I was so pleased! Then the sun went down.So, I can handle large parties. Guys hanging off the balconies. Even the large rottweiler who wanders, unleashed, about the property. I'm broke, and I can't be picky. It's annoying, but not necessarily dangerous (if you know where the rottweiler is). However,  please keep the next bit in mind before you stay here.After seeing 5 police cars circle through the parking lot from the diner across the road, I asked some guys next door what was going on. I was told, in a very nice way, that I "don't belong here", that this "is no place [I] should be", and I either need " to pack up and leave or lock your door and stay in the room" because 1) I'm in the worst drug area in the city, 2) most of the guests are living here, and 3) I am now in the center of a gang war because x pissed off y, and all hell has broken loose. ("don't worry, ma. We'll watch your room for you".) The guy then proceeded to walk past my room, pop out the screen on the other room, jimmy the window open, and hop in. I'm from Detroit. I travel a LOT. Not much phases me...and I can usually spot a not-so-good area. And though it's just slightly worn down over here, it by no means looks like a bad place to be. There's a Starbucks down the road, a Borders a mile over, and a church across the street. Not exactly warning signs, there. While barricaded in my room, I looked up the statistics for Denver, and found that I am smack in the center of the Sur-13 gang territory. WHOOO! Value! Cozy rooms! Gangbanging! What more could you want in a vacation? It's like being in a live episode of the First 48!So please. Even if you're fine with a budget hotel, just consider your safety. I was kind of blind to the warning signs until the guy next door told me what was going on (he admitted he's in one of the warring factions, &amp; this is a drug/gang hangout). So...just look elsewhere. Awesome room. Friendly staff. Convenient location, and low price. But be prepared to never leave the room, and to be scared the whole time you're in there.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1156,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1188,1868 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>146</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>167</v>
+      </c>
+      <c r="O18" t="s">
+        <v>146</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_203.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r592469805-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>119934</t>
+  </si>
+  <si>
+    <t>592469805</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Ugly!</t>
+  </si>
+  <si>
+    <t>This room had not been cleaned for a long time. We went out and bought disinfecting cleaners and a mop. We cleaned it the best we could. There was a card with a name. I'm surprised she would claim such a dirty room. We stayed 2 nights so that evening we left her a note to change the shower curtain. It was moldy! I will never stay in a Motel 6 again.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r558181245-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>558181245</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Clean Motel 6</t>
+  </si>
+  <si>
+    <t>This is the cleanest Motel 6 I have ever stayed in.  I had a room facing the pool - which does face the parking lot and lobby - but overall it was a quiet cold night outside.  Not sure that would be the way if the pool was open or warm outdoors.  But for a Motel 6 it was clean and the bed was comfy.CON: Motel 6's still charge for WIFI</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r545547890-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
-    <t>33668</t>
-  </si>
-  <si>
-    <t>119934</t>
-  </si>
-  <si>
     <t>545547890</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r538932456-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -219,6 +258,60 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r524519398-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>524519398</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Very rude call at 12;30am from Night clerk.</t>
+  </si>
+  <si>
+    <t>Booked the hotel online for same night stay. Check in clerk could not have been nicer. Very professional and courteous when we checked in at about 7pm. Hotel was a bit noisy due to nearby traffic and other patrons closing doors and talking and such but nothing too bad. 
+Rooms had dirt on the floor, blood in between the joining doors, Beds had hair in them. Had my 2 and 5 yr old granddaughters in the room with me, at 12;30am I get a very rude call from what I had to assume was the night clerk. I answer the phone 1/2asleep and person on the other end very rudely asks.
+ 'You have kids?' 
+me 'huh' 
+the person on the other end ' you have kids in the room with you?' 
+me 'Yes' 
+The person on the other end ' Well I just got a call from an associate that your kids are being unruly and are making a lot of noise and are jumping around'. 
+Me 'The kids have been asleep for hours ( both were asleep at 8pm) so they are NOT making noise and are NOT jumping around at all' 
+Other end very rudely and none apologetic 'Well I got the call so have to follow up' then hangs up. 
+So if you want to stay at this place be prepared to get a very rude wakeup call when one of the associates' deems you are making...Booked the hotel online for same night stay. Check in clerk could not have been nicer. Very professional and courteous when we checked in at about 7pm. Hotel was a bit noisy due to nearby traffic and other patrons closing doors and talking and such but nothing too bad. Rooms had dirt on the floor, blood in between the joining doors, Beds had hair in them. Had my 2 and 5 yr old granddaughters in the room with me, at 12;30am I get a very rude call from what I had to assume was the night clerk. I answer the phone 1/2asleep and person on the other end very rudely asks. 'You have kids?' me 'huh' the person on the other end ' you have kids in the room with you?' me 'Yes' The person on the other end ' Well I just got a call from an associate that your kids are being unruly and are making a lot of noise and are jumping around'. Me 'The kids have been asleep for hours ( both were asleep at 8pm) so they are NOT making noise and are NOT jumping around at all' Other end very rudely and none apologetic 'Well I got the call so have to follow up' then hangs up. So if you want to stay at this place be prepared to get a very rude wakeup call when one of the associates' deems you are making too much noise while sleeping. Maybe instead of rudely waking guests in the middle of the night and accusing them of making imaginary noises, they should devote more time to cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked the hotel online for same night stay. Check in clerk could not have been nicer. Very professional and courteous when we checked in at about 7pm. Hotel was a bit noisy due to nearby traffic and other patrons closing doors and talking and such but nothing too bad. 
+Rooms had dirt on the floor, blood in between the joining doors, Beds had hair in them. Had my 2 and 5 yr old granddaughters in the room with me, at 12;30am I get a very rude call from what I had to assume was the night clerk. I answer the phone 1/2asleep and person on the other end very rudely asks.
+ 'You have kids?' 
+me 'huh' 
+the person on the other end ' you have kids in the room with you?' 
+me 'Yes' 
+The person on the other end ' Well I just got a call from an associate that your kids are being unruly and are making a lot of noise and are jumping around'. 
+Me 'The kids have been asleep for hours ( both were asleep at 8pm) so they are NOT making noise and are NOT jumping around at all' 
+Other end very rudely and none apologetic 'Well I got the call so have to follow up' then hangs up. 
+So if you want to stay at this place be prepared to get a very rude wakeup call when one of the associates' deems you are making...Booked the hotel online for same night stay. Check in clerk could not have been nicer. Very professional and courteous when we checked in at about 7pm. Hotel was a bit noisy due to nearby traffic and other patrons closing doors and talking and such but nothing too bad. Rooms had dirt on the floor, blood in between the joining doors, Beds had hair in them. Had my 2 and 5 yr old granddaughters in the room with me, at 12;30am I get a very rude call from what I had to assume was the night clerk. I answer the phone 1/2asleep and person on the other end very rudely asks. 'You have kids?' me 'huh' the person on the other end ' you have kids in the room with you?' me 'Yes' The person on the other end ' Well I just got a call from an associate that your kids are being unruly and are making a lot of noise and are jumping around'. Me 'The kids have been asleep for hours ( both were asleep at 8pm) so they are NOT making noise and are NOT jumping around at all' Other end very rudely and none apologetic 'Well I got the call so have to follow up' then hangs up. So if you want to stay at this place be prepared to get a very rude wakeup call when one of the associates' deems you are making too much noise while sleeping. Maybe instead of rudely waking guests in the middle of the night and accusing them of making imaginary noises, they should devote more time to cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r517146563-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>517146563</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the nicest Motel 6 I have ever seen. Extremely comfortable room. Showers are standing stalls, much cleaner feel than tubs.The set up of the room was comforting. I had an amazing sleep. Staff was extremely friendly </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r484656441-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -237,9 +330,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>My daughter booked this online as part of a package deal. We arrived about 11:30 pm and were so tired we could have slept most anywhere...Where do I begin?  -We were overcharged for the room. -Room was outdated. I'm talking slum lord outdated. -The room was dirty. Really dirty. -Gaps between wall and ceiling. -Base boards coming apart from the wall. -No toiletries. -Charged extra for internet. -Loud music and yelling coming from room next door. -Shady characters hanging around outside. So much so we were uncomfortable going outside, afraid our car would be broken into, and with the room's beat up wooden door we seriously questioned our safety inside the room. It reminded us more of a crack house than a motel. The one positive was that the desk clerk did not hesitate on refunding our money.  At 12:30 am we were sitting in a restaurant parking lot, in a strange city, with nowhere to stay. Honestly, I preferred to sleep in our car over the hotel room. Luckily we found a room in a Supper 8 (for the SAME price. Clean, safe, pool, breakfast, toiletries, and friendly staff. We booked three nights and couldn't have been happier.More</t>
   </si>
   <si>
@@ -285,6 +375,45 @@
     <t>By far worse experience we have ever had.  The customer service rep Cynthia was absolutely atrocious.  Eye rolling, snotty and rude even on the phone she had an attitude problem.  We had so many issues with her behavior we ended up canceling our reservation on the spot coming in late night after a 20 hour drive will never go to a motel 6 again because of this womanMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r404053998-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404053998</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Economy hotel with no frills</t>
+  </si>
+  <si>
+    <t>My sister in law had reserved this hotel and was a little worried due to previous reviews. This is a basic hotel. No frills, no microwave, no mini fridge no little coffee maker. The room was clean, there was a lot of noise from the guests by the pool until around 10 pm. So if you are looking for an inexpensive hotel and don't mind the noise this is okay. The ac worked great. There was ice in the ice machine.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r401127276-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>401127276</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>night from hell</t>
+  </si>
+  <si>
+    <t>we were on the first floor in the very back it was so hot in the room we could not sleep and the bleach smell burned our eyes i told the office and she gave me another room that was filled with smoke and hot as hell too. so we bought a fan and put it in the window,and poop smeared on the bathroom wall. Just discussting  it was the worse motel 6 we have ever stayed in and we paid $ 94.73 for this night DON'T GO THERE YOU WILL BE SORRY</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r398022962-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -298,9 +427,6 @@
   </si>
   <si>
     <t>Since the last time I stayed here,  this place has really gone downhill.The air conditioning did not work so we had to open the window all night. We were kept awake by some rather unsavory characters wandering around through the parking lot all night and some guys shooting up on the stairs by our room.As well some family let their kids run around screaming and yelling very late in the night.I will NEVER stay here again!!!!</t>
-  </si>
-  <si>
-    <t>July 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r387445303-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
@@ -354,6 +480,57 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r333021735-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>333021735</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Should be shut down! Hell!</t>
+  </si>
+  <si>
+    <t>As a female you want a safe place to stay, especially when you are responsible for someones female teenager who is not used to big cities.  My young friend and I checked into this hotel after a long drive from Montana.  The lady at the front desk could barely speak English and tried to over charge me.  That being said 10 dollars a night would have been overcharging for this horror show.  Although the gun shots we heard were not the hotels fault, it added to the nightmare that this hotel presents itself to be.  It was around 2 am and some men started trying to open our door! They were pounding on it and yelling for someone we did not know!  When I called the police, I was told that they were already at the hotel for another call and would be there shortly.  My friend and I had already decided upon discovering hair in our beds, sink and shower that we were going to go someplace else the next night and not stay the planned 4 nights at this nightmare.  The floors, which supposedly had been redone, were sticky and turned our feet black within minutes of taking off our shoes.  In addition to the floor being disgusting, they were also unsafe as I got a piece of broken glass in my foot.  I have asthma and can not handle being around smoke.  I requested a non smoking...As a female you want a safe place to stay, especially when you are responsible for someones female teenager who is not used to big cities.  My young friend and I checked into this hotel after a long drive from Montana.  The lady at the front desk could barely speak English and tried to over charge me.  That being said 10 dollars a night would have been overcharging for this horror show.  Although the gun shots we heard were not the hotels fault, it added to the nightmare that this hotel presents itself to be.  It was around 2 am and some men started trying to open our door! They were pounding on it and yelling for someone we did not know!  When I called the police, I was told that they were already at the hotel for another call and would be there shortly.  My friend and I had already decided upon discovering hair in our beds, sink and shower that we were going to go someplace else the next night and not stay the planned 4 nights at this nightmare.  The floors, which supposedly had been redone, were sticky and turned our feet black within minutes of taking off our shoes.  In addition to the floor being disgusting, they were also unsafe as I got a piece of broken glass in my foot.  I have asthma and can not handle being around smoke.  I requested a non smoking room, which they allegedly gave me.  However, the room stank of cigars and the other hotel guests, which i'm guessing had lived there for quite some time, smoked inches from our door and window.  I called to complain many times as they were outside our door drinking and also doing illegal drugs.  When I say illegal, keep in mind that in Colorado pot is legal.  Also during our wonderful night stay, we woke up to some woman screaming and looked out the window to see her bloody face, which I can only assume was from the man that was screaming at her with profane language.  We got hardly any sleep and decided to get up and go swimming.  That was a joke, the housekeepers children were all in the pool, leaving no room for guests. However, after looking at the filthy water they called a pool, we would not have swam in it anyway. Which brings me to another discussing observation.  Two of the housekeepers were not even wearing shoes!!!!!!!!  When I informed the manager of what was going on, I was told this "they wear shoes" "they wear shoes".  The manager was of no help and refused to go look for herself.  I called the motel 6 in Fort Collins to see if they had any openings, and NOT surprisingly they informed me that others from this location had transferred their reservations to the Ft. Collins location.  This disgusting and unsafe place should be shut down.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Denver Thornton, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>As a female you want a safe place to stay, especially when you are responsible for someones female teenager who is not used to big cities.  My young friend and I checked into this hotel after a long drive from Montana.  The lady at the front desk could barely speak English and tried to over charge me.  That being said 10 dollars a night would have been overcharging for this horror show.  Although the gun shots we heard were not the hotels fault, it added to the nightmare that this hotel presents itself to be.  It was around 2 am and some men started trying to open our door! They were pounding on it and yelling for someone we did not know!  When I called the police, I was told that they were already at the hotel for another call and would be there shortly.  My friend and I had already decided upon discovering hair in our beds, sink and shower that we were going to go someplace else the next night and not stay the planned 4 nights at this nightmare.  The floors, which supposedly had been redone, were sticky and turned our feet black within minutes of taking off our shoes.  In addition to the floor being disgusting, they were also unsafe as I got a piece of broken glass in my foot.  I have asthma and can not handle being around smoke.  I requested a non smoking...As a female you want a safe place to stay, especially when you are responsible for someones female teenager who is not used to big cities.  My young friend and I checked into this hotel after a long drive from Montana.  The lady at the front desk could barely speak English and tried to over charge me.  That being said 10 dollars a night would have been overcharging for this horror show.  Although the gun shots we heard were not the hotels fault, it added to the nightmare that this hotel presents itself to be.  It was around 2 am and some men started trying to open our door! They were pounding on it and yelling for someone we did not know!  When I called the police, I was told that they were already at the hotel for another call and would be there shortly.  My friend and I had already decided upon discovering hair in our beds, sink and shower that we were going to go someplace else the next night and not stay the planned 4 nights at this nightmare.  The floors, which supposedly had been redone, were sticky and turned our feet black within minutes of taking off our shoes.  In addition to the floor being disgusting, they were also unsafe as I got a piece of broken glass in my foot.  I have asthma and can not handle being around smoke.  I requested a non smoking room, which they allegedly gave me.  However, the room stank of cigars and the other hotel guests, which i'm guessing had lived there for quite some time, smoked inches from our door and window.  I called to complain many times as they were outside our door drinking and also doing illegal drugs.  When I say illegal, keep in mind that in Colorado pot is legal.  Also during our wonderful night stay, we woke up to some woman screaming and looked out the window to see her bloody face, which I can only assume was from the man that was screaming at her with profane language.  We got hardly any sleep and decided to get up and go swimming.  That was a joke, the housekeepers children were all in the pool, leaving no room for guests. However, after looking at the filthy water they called a pool, we would not have swam in it anyway. Which brings me to another discussing observation.  Two of the housekeepers were not even wearing shoes!!!!!!!!  When I informed the manager of what was going on, I was told this "they wear shoes" "they wear shoes".  The manager was of no help and refused to go look for herself.  I called the motel 6 in Fort Collins to see if they had any openings, and NOT surprisingly they informed me that others from this location had transferred their reservations to the Ft. Collins location.  This disgusting and unsafe place should be shut down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r323551438-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>323551438</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Pictures are deceiving!</t>
+  </si>
+  <si>
+    <t>Not satisfied at all with this hotel.  The pictures are not worth a thousand words at this hotel...yes the rooms were remodeled but just to look clean.  The beds were ridiculously hard, the air conditioner was terrible.  The room was hot even on a 45 degree night.  The AC was set to high cool and little to no air came out.  The little air that did come out was slightly below room temperature.  The room itself was very small.  I was with a group of friends and their room came with a mini fridge and microwave.  My room had neither of these and we paid the same price.  We checked in around 7pm and the main lobby was already locked and we had to check in at the "bullet proof glass" window.  Really made you feel like you were in the ghetto. I will not be staying at this Motel 6 again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Not satisfied at all with this hotel.  The pictures are not worth a thousand words at this hotel...yes the rooms were remodeled but just to look clean.  The beds were ridiculously hard, the air conditioner was terrible.  The room was hot even on a 45 degree night.  The AC was set to high cool and little to no air came out.  The little air that did come out was slightly below room temperature.  The room itself was very small.  I was with a group of friends and their room came with a mini fridge and microwave.  My room had neither of these and we paid the same price.  We checked in around 7pm and the main lobby was already locked and we had to check in at the "bullet proof glass" window.  Really made you feel like you were in the ghetto. I will not be staying at this Motel 6 again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r296763277-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -369,12 +546,6 @@
     <t>Terrible! Walk into non-smoking room, smells like smoke and litter boxes. Uncomfortable entire stay. Ghetto type feeling. Blankets had cigarette burn holes, stains on walls and chairs. Would NOT recommend, price WAY too high for what you get...MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Denver Thornton, responded to this reviewResponded August 11, 2015</t>
   </si>
   <si>
@@ -423,6 +594,51 @@
     <t>Checked into motel, looking forward to some time in the pool! Pool was out of order, and had been for sometime according to permanent residence. Was not given a price break or advised on booking or check-in. The area around the handicap room is surrounded by permanent residences with small kids and dogs. The kids were right outside the door till around 9pm screaming, and yelling. Multiple dogs in area barking at all times!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r289421654-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>289421654</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>An motorway-hotel</t>
+  </si>
+  <si>
+    <t>It seems ok in the first sight.  At the frontdesk they were busy to NOT SEE a drunk man that made a lot of noice and trouble.  I asked them to get him out so they tried to call someone.  After sometime he left but we did not get a good impression at the beginning.  The rooms seems clean and quiet new-renovated.  The bath was nice and clean.  The surroundings was a lot of trash outside, lot of people made much noice, gunshots during the night made me to be afraid, lot of dogs and smell of them in the rooms.  the highway was right outside but did not made much noise.  The area was not safe so we could not walk to a restaurant in the evening or to find breakfast in the morning.But a lot happened in the backyard with people and action most of the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Thornton, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>It seems ok in the first sight.  At the frontdesk they were busy to NOT SEE a drunk man that made a lot of noice and trouble.  I asked them to get him out so they tried to call someone.  After sometime he left but we did not get a good impression at the beginning.  The rooms seems clean and quiet new-renovated.  The bath was nice and clean.  The surroundings was a lot of trash outside, lot of people made much noice, gunshots during the night made me to be afraid, lot of dogs and smell of them in the rooms.  the highway was right outside but did not made much noise.  The area was not safe so we could not walk to a restaurant in the evening or to find breakfast in the morning.But a lot happened in the backyard with people and action most of the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r289180173-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>289180173</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>New Year experience</t>
+  </si>
+  <si>
+    <t>Came to visit my friends in Colorado, unfortunately exactly few days before new year water been cut in their house. So we decided to take cheap motel to spend night there. Never expected that much greatness from motel, room was really clean and new. We even celebrated new year there!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r289029585-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -438,15 +654,6 @@
     <t>I'm sitting in the motel 6 room right now as I write this. The perfumed scent they used to cover up the smoke in this supposedly non-smoking room is hideous! We're almost choking it's so strong. But we had a cancelled plane flight, it's late, there are no other hotels/motels with vacancies nearby, and it was recommended to my daughter by a flight attendant. Next time I choose the hotel!! For goodness sakes, 1) do not stay here 2) don't believe any positive reviews - they have to be planted and 3) do not stay here. The last bears repeating. Who knows - I may end up sleeping in the car tonight if I can't get used to the heavily perfumed air!MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>6Team, Brand Experience Team member at Motel 6 Denver Thornton, responded to this reviewResponded July 20, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 20, 2015</t>
-  </si>
-  <si>
     <t>I'm sitting in the motel 6 room right now as I write this. The perfumed scent they used to cover up the smoke in this supposedly non-smoking room is hideous! We're almost choking it's so strong. But we had a cancelled plane flight, it's late, there are no other hotels/motels with vacancies nearby, and it was recommended to my daughter by a flight attendant. Next time I choose the hotel!! For goodness sakes, 1) do not stay here 2) don't believe any positive reviews - they have to be planted and 3) do not stay here. The last bears repeating. Who knows - I may end up sleeping in the car tonight if I can't get used to the heavily perfumed air!More</t>
   </si>
   <si>
@@ -468,9 +675,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>while in Denver we neglected to make reservations ahead of time and found ourselves running out of options when attempting to find a room for the night. The first thing that shocked me was the price of the room. Almost $95.00 for a Motel 6 room. But I guess that's Denver. When we entered our room the heat was on and the temp must have been about 85 degrees. Ok, it had been raining that day and the maid must have left it on. When I tried to turn on the AC to cool off the room to my surprise I found it didn't work. Ok, let's open the window. Here comes the noise. I-25 traffic, parking lot traffic and other guest noise. Next came the bed. Queen sized and felt like we laying on a board. The blanket had a bit of a funky smell as well. Very suprising for  Motel 6.PS-when I tried to sign onto Wi-Fi with my tablet, I was informed that $3.00 charge would be added to my bill.More</t>
   </si>
   <si>
@@ -498,6 +702,42 @@
     <t>Hair, pet and human, all over "clean" bath towels. Floors not swept or clean. Dog hair in my ice bucket and I don't have a dog and never used the ice bucket. Constant barking dogs day and night. First morning I woke up to find cops with guns drawn outside next door to my room. Second day, another incident at this motel requiring police. The hot water doesn't last and it goes from warm to ice cold after about 10 minutes. Heat in my room doesn't work. They said nothing is wrong with it when I complained. No mini fridge in room. Maid service sucks. The maid came in took all my towels and opened my curtain thats it. Didn't empty trash, didn't replace the towels, make the bed, sweep the floor.....nothing. I came home from work to find my room like this and the front office didn't have anything but hand towels to give me. Its better than being homeless I guess.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r263349576-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>263349576</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Staff Sucks</t>
+  </si>
+  <si>
+    <t>Check in was terrible we were told the room was not ready yet come back in about an hour, keep in mind all there signs say check in is at 3pm. So we came back around 4 pm and the room was still not ready, The desk clerk misty was so very rude and treated me as if im stupid or something, our reservation was prepaid and she didnt care, come back again at 5pm and the room was ready at last. The room had not been cleaned it was still dirty from the last people. We went back to the front desk and told misty what happened. She did move us to another room but she did not apologize for the mistake or anything in fact she was very annoyed we was taking her time away from playing on her phone.So many drug deals going down, people screaming all night and the cops were there a lot. This has to be the worst motel 6 ever, do yourself a favor run away, and dont believe the good reviews I think they pay people to say good things, the outside of the property is in need of so many repairs stucko falling off everywhere. I am really amazed the corporate office dont clean house or shut this location down, Not what I expected with Motel 6.Our company will never send any of our staff here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Check in was terrible we were told the room was not ready yet come back in about an hour, keep in mind all there signs say check in is at 3pm. So we came back around 4 pm and the room was still not ready, The desk clerk misty was so very rude and treated me as if im stupid or something, our reservation was prepaid and she didnt care, come back again at 5pm and the room was ready at last. The room had not been cleaned it was still dirty from the last people. We went back to the front desk and told misty what happened. She did move us to another room but she did not apologize for the mistake or anything in fact she was very annoyed we was taking her time away from playing on her phone.So many drug deals going down, people screaming all night and the cops were there a lot. This has to be the worst motel 6 ever, do yourself a favor run away, and dont believe the good reviews I think they pay people to say good things, the outside of the property is in need of so many repairs stucko falling off everywhere. I am really amazed the corporate office dont clean house or shut this location down, Not what I expected with Motel 6.Our company will never send any of our staff here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r260864569-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>260864569</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Only safe,clean place to stay with a pet North Denver</t>
+  </si>
+  <si>
+    <t>Extended stay with pet isn't easy, but staff at this Motel 6 work hard with a smile everyday. We smoke but room smelled fresh each time cleaned.  Secret: room 151 has queen bed with BATHTUB. Manager Dan is everywhere at all hours,sometimes with a smile frozen on his face shoveling snow in the storm. Elaine, Toni, Jamie, Stephanie,Sadie,misty are just some of the names of folks who excel--entire housekeeping/maintenance staff are great.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r246911725-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -531,9 +771,6 @@
     <t>My boyfriend and I stayed here for one night during our road trip in Colorado, and were pleasantly surprised by how nice our room was. It was updated, had a nice mounted flat screen, and definitely not what I was expecting when I paid 60 bucks to spend the night. I am not from the area, but the surrounding neighborhood seemed a bit sketchy, as were the other guests staying there. There are signs posted around the parking lot urging guests to lock their cars and stating that the hotel is not responsible for damages or stolen items. Other than that, the room is pretty basic, no fridge, microwave, and a daily $3 fee for wifi. The shower was tiny, only big enough for one person, and the heat was cranked up way too high, but those are my only complaints. The staff at the front desk were very friendly and helped point me in the right direction for groceries, which were just up the street. For the price, I feel I got my moneys worth, and I would stay here again. MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>My boyfriend and I stayed here for one night during our road trip in Colorado, and were pleasantly surprised by how nice our room was. It was updated, had a nice mounted flat screen, and definitely not what I was expecting when I paid 60 bucks to spend the night. I am not from the area, but the surrounding neighborhood seemed a bit sketchy, as were the other guests staying there. There are signs posted around the parking lot urging guests to lock their cars and stating that the hotel is not responsible for damages or stolen items. Other than that, the room is pretty basic, no fridge, microwave, and a daily $3 fee for wifi. The shower was tiny, only big enough for one person, and the heat was cranked up way too high, but those are my only complaints. The staff at the front desk were very friendly and helped point me in the right direction for groceries, which were just up the street. For the price, I feel I got my moneys worth, and I would stay here again. More</t>
   </si>
   <si>
@@ -558,6 +795,45 @@
     <t>This hotel is great if you like to party all night  with shady people. Not so good for sleeping .my wife seen a guy checking our car out in lot seeing if doors were locked.loud people evey night even louder Friday and Saturday .If you stay here you would probably feel better if you were armed in your room but that don't stop the people messing with your car while you sleep.do your self a favor and spend the 15-20$ more a night and sleep better at night probably cheaper in the long run if someone Was to steal stuff out your car it would cost you more then the 15-20$.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r230708103-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>230708103</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t>My husband and I were exhausted so we made a quick decision to pull into this place to get some sleep and a shower. Parts of the room were updated but it still felt and looked dirty. We didn't feel safe staying here. Our room had 2 queen beds. You could feel the springs through the mattress. Way overpriced for what was offered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r229689328-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>229689328</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Even for a newly redecorated Motel 6 this one is not good. Room was not cleaned properly with coffee stains on table. Beds clean as I checked it with my black light but the cover on the second bed had what looked like crumbs on it, which I was able to brush off after finding them with the light. Dirt and crumbs between mattress and headboard. Cleaning staff definitely not up to par. Clientel a lot to be desired. Think we were the only people there without a tattoo or some form of body piercing. Please pass this this place by. Wifi is $3.00.  They do have a flat screen TV.  Burger King just up the street. I will say that the hotel was quiet as I was expecting it to be very noisy after observing the other guests.  It was a pleasant surprise, the only one.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver Thornton, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Even for a newly redecorated Motel 6 this one is not good. Room was not cleaned properly with coffee stains on table. Beds clean as I checked it with my black light but the cover on the second bed had what looked like crumbs on it, which I was able to brush off after finding them with the light. Dirt and crumbs between mattress and headboard. Cleaning staff definitely not up to par. Clientel a lot to be desired. Think we were the only people there without a tattoo or some form of body piercing. Please pass this this place by. Wifi is $3.00.  They do have a flat screen TV.  Burger King just up the street. I will say that the hotel was quiet as I was expecting it to be very noisy after observing the other guests.  It was a pleasant surprise, the only one.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r226702543-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -603,6 +879,36 @@
     <t xml:space="preserve">Ok the price wasn't not to bad but the beds were extremely hard and my family and I got a room close to stairs and the noise was ridiculous all night and I do not recommend walking to the restaurant at night it just doesn't seem safe. But I guess if you won't stay there long it will be a good place to stay </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r199380805-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>199380805</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Don't let the outside fool you</t>
+  </si>
+  <si>
+    <t>At first fight I was skeptical about staying here. The parking lot is dirty, garbage cans were overflowing and generally, the place looked a bit shabby. However, I was more than surprised by the room. It was clean and comfortable, and considering it's next to the interstate, surprisingly quiet. Also, it appeared to have been recently updated. New flooring, updated bathroom and flat screen tv</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r194237312-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>194237312</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>They dont clean!</t>
+  </si>
+  <si>
+    <t>Super pricey for a crappy hole. The pet area is horrible.  Beer and liquor bottles litter the property.  They obviously don't care about the outside appearance. Dog poo EVERY WHERE... rooms are nice. But that's about it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r160175263-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -661,6 +967,42 @@
   </si>
   <si>
     <t>Hey, I've been comped rooms, I've stayed at several locations and although the asthetics were up to par, the linens still are filthy and this trip we got to the bottom of the problem, the head house keeper informed me that the linens on the bed were clean that the business needs to purchase new laundry machines for all the motel 6's in the world because it is clean, but the hairs stay in the towel. so if you don't mind pubic hair in your bed and on your washcloths, then Motel 6 is for you!Stay at a New Victorian Inn if there is one close to you! Happy Holidays!PatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r147307500-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>147307500</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>A good night's rest,,,</t>
+  </si>
+  <si>
+    <t>After driving 800 miles in one day, this was a easy location to find right off I-25, north Denver area.  Wished they had the coffee available for late night arrivals, but not to be.  Only thing negative I can say about this location.......long ways to go to get 'ice',,,and the concrete steps and  pathways in front of the rooms and all the way to the front office area, need some real cleaning to take place &gt; like power washing the dirt and other materials off.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r139385837-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>139385837</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Roach motel...literally</t>
+  </si>
+  <si>
+    <t>Stayed here one night out of exhaustion/desperation.  Found a roach crawling out from the bathroom sink plumbing in the a.m.  Showed the dead bug to reception and said the'd notify the cleaning folks but didn't even offer a refund.  Gross and disappointing.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r130880313-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
@@ -718,6 +1060,36 @@
   </si>
   <si>
     <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r116217412-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116217412</t>
+  </si>
+  <si>
+    <t>Super Clean, Way Above Average Motel 6!</t>
+  </si>
+  <si>
+    <t>Way above average for a Motel 6!  Uber clean, nifty flat-screen tv with full selection of channels.  Good water pressure, comfy beds, free coffee in morning, really fast wifi connection (3 bucks for 24 hrs).  Right next to the Village Inn, a good breakfast place.  Great location on I-25, fast access to downtown Denver area.  Can't ask for more for the excellent price -- $41.00!!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r90054645-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>90054645</t>
+  </si>
+  <si>
+    <t>12/16/2010</t>
+  </si>
+  <si>
+    <t>Most fun I've had all year</t>
+  </si>
+  <si>
+    <t>The staff was friendly, helpful &amp; curtious. The room was nice &amp; clean. My boyfriend &amp; I had a wonderful time!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d119934-r82788752-Motel_6_Denver_Thornton-Thornton_Colorado.html</t>
@@ -1297,7 +1669,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1306,15 +1678,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1358,7 +1726,7 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -1367,14 +1735,16 @@
         <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1419,7 +1789,7 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
@@ -1428,11 +1798,15 @@
         <v>60</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1476,7 +1850,7 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
@@ -1486,17 +1860,21 @@
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1512,34 +1890,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1553,7 +1931,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1569,48 +1947,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1626,31 +2008,31 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -1667,7 +2049,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1683,54 +2065,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1746,52 +2122,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
       </c>
       <c r="O10" t="s">
         <v>60</v>
       </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1807,35 +2179,31 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>114</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1846,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1868,52 +2236,54 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="O12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" t="s"/>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -1929,7 +2299,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1938,47 +2308,45 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
         <v>124</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14">
@@ -1994,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2003,49 +2371,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>137</v>
-      </c>
-      <c r="X14" t="s">
-        <v>138</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2061,7 +2419,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2070,31 +2428,33 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2106,7 +2466,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2122,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2131,43 +2491,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" t="s">
-        <v>154</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -2183,7 +2543,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2192,39 +2552,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -2240,7 +2610,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2249,25 +2619,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2281,7 +2651,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -2297,7 +2667,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2306,43 +2676,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
@@ -2358,54 +2728,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
         <v>176</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K20" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -2421,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2430,45 +2798,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="O21" t="s">
         <v>60</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>174</v>
+      </c>
+      <c r="X21" t="s">
+        <v>175</v>
+      </c>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -2484,42 +2854,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
         <v>186</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" t="s">
-        <v>190</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="s"/>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>188</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
       <c r="Y22" t="s">
         <v>190</v>
       </c>
@@ -2558,29 +2940,25 @@
         <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
         <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2588,7 +2966,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -2604,41 +2982,37 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>198</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>199</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>200</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>201</v>
       </c>
-      <c r="L24" t="s">
-        <v>202</v>
-      </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>3</v>
       </c>
@@ -2647,15 +3021,19 @@
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
@@ -2671,50 +3049,44 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>204</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>205</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>206</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>207</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
         <v>208</v>
       </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>209</v>
-      </c>
       <c r="O25" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2722,7 +3094,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
@@ -2738,56 +3110,50 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>212</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>213</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>214</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>215</v>
       </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="X26" t="s">
         <v>216</v>
       </c>
-      <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
       <c r="Y26" t="s">
         <v>217</v>
       </c>
@@ -2826,33 +3192,27 @@
         <v>222</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -2868,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2877,30 +3237,30 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" t="n">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>5</v>
@@ -2915,7 +3275,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -2931,7 +3291,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -2940,49 +3300,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
@@ -2998,7 +3348,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3007,42 +3357,32 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
@@ -3052,6 +3392,1268 @@
         <v>241</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>259</v>
+      </c>
+      <c r="X33" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" t="s">
+        <v>150</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>278</v>
+      </c>
+      <c r="J37" t="s">
+        <v>279</v>
+      </c>
+      <c r="K37" t="s">
+        <v>280</v>
+      </c>
+      <c r="L37" t="s">
+        <v>281</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>283</v>
+      </c>
+      <c r="J38" t="s">
+        <v>284</v>
+      </c>
+      <c r="K38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s">
+        <v>291</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>292</v>
+      </c>
+      <c r="O39" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
+        <v>297</v>
+      </c>
+      <c r="L40" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
+        <v>303</v>
+      </c>
+      <c r="L41" t="s">
+        <v>304</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" t="s">
+        <v>311</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>312</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s">
+        <v>317</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>324</v>
+      </c>
+      <c r="O44" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>332</v>
+      </c>
+      <c r="J46" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" t="s">
+        <v>335</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>336</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>341</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s">
+        <v>346</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>347</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" t="s">
+        <v>350</v>
+      </c>
+      <c r="L49" t="s">
+        <v>351</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6367</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>354</v>
+      </c>
+      <c r="J50" t="s">
+        <v>355</v>
+      </c>
+      <c r="K50" t="s">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s">
+        <v>357</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>358</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>